--- a/Adactin/Test Case/TestCase Adactin.xlsx
+++ b/Adactin/Test Case/TestCase Adactin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\03. NareshIt (Manual Testing)\New folder\Adactin\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF6F712-CEC7-43DD-A2D9-D77EF3A260A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF6ECB-FB6B-46DD-9C3C-79E67E3E7AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="179">
   <si>
     <t>Project History</t>
   </si>
@@ -565,6 +565,25 @@
 11. Click on Register button</t>
   </si>
   <si>
+    <t>URL
+username
+password
+confirm password
+fullname
+email
+cature</t>
+  </si>
+  <si>
+    <t>New Capture data should be
+displayed</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
     <t>1. Launch Browsher
 2. Enter Url
 3. Click on new user registration link
@@ -573,30 +592,316 @@
 6. enter confirm password
 7. enter fullname
 8. enter email id
-9. click on capture refresh button</t>
-  </si>
-  <si>
-    <t>URL
-username
-password
-confirm password
-fullname
-email
-cature</t>
-  </si>
-  <si>
-    <t>New Capture data should be
+9. Enter Capture text</t>
+  </si>
+  <si>
+    <t>User Enter Data should be acceptable</t>
+  </si>
+  <si>
+    <t>1. Launch Browsher
+2. Enter Url
+3. Click on new user registration link
+4. click on capture refresh button</t>
+  </si>
+  <si>
+    <t>TS006</t>
+  </si>
+  <si>
+    <t>TS011</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2.Enter Url
+3. Verify logo for whole a whole application</t>
+  </si>
+  <si>
+    <t>Logo should be displayed proper
+way for whole application</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Verify header for whole application</t>
+  </si>
+  <si>
+    <t>Header should be displayed for
+whole application</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Verify Footer for whole application</t>
+  </si>
+  <si>
+    <t>Footer should be display for 
+whole application</t>
+  </si>
+  <si>
+    <t>TS023</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn</t>
+  </si>
+  <si>
+    <t>url
+username, pwd
+location, hotel
+room type
+no. of room
+check in date
+check out date
+adults per room
+children per room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel page Should be Displayed </t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6.Click on search btn</t>
+  </si>
+  <si>
+    <t>url
+username, pwd</t>
+  </si>
+  <si>
+    <t>Error message should be displayed</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select previous check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date before check in date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn</t>
+  </si>
+  <si>
+    <t>TS024</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date before check in date
+12. Select Adults per room
+13. Select children for room
+14. Click on Reset btn</t>
+  </si>
+  <si>
+    <t>Search hotel fields data should be
+cleared</t>
+  </si>
+  <si>
+    <t>TS027</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Verify dropdown fun:
+6.1. Select location
+6.2. Select Hotel
+6.3. select room types
+6.4. Select no. of room
+6.5. Select check in date
+6.6. Select Check out date
+6.7. select adults per room
+6.8. select children per room</t>
+  </si>
+  <si>
+    <t>a) Location, Hotel, room types, no. of rooms, check in date, check out date, adults per room, children per room dropdown should be displayed
+b) user selected option should be
+desplayed
+c) Default values should be displayd</t>
+  </si>
+  <si>
+    <t>TS031</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Enter password
+5. Click on Login btn</t>
+  </si>
+  <si>
+    <t>endUser entered username in login
+page should be displayed as Hello {username}! On Search Hotel, Select Hotel, Book a Hotel, Order generation, Booking confirmation, Booked Itinerary pages</t>
+  </si>
+  <si>
+    <t>TS034</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn
+15. Select required Hotel
+16. click on continue</t>
+  </si>
+  <si>
+    <t>Book a Hotel should be Displayed</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn
+15. click on continue</t>
+  </si>
+  <si>
+    <t>TS035</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn
+15. Select required Hotel
+16. click on cancel btn</t>
+  </si>
+  <si>
+    <t>It should be Navigate to Search
+Hotel page</t>
+  </si>
+  <si>
+    <t>TS038</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Enter URL
+3. Enter username
+4. Entrer password
+5. Click on login btn
+6. Select location
+7. Select hotel
+8. Room Types
+9. Select no. of room
+10. Select check in date
+11. Select Check out date
+12. Select Adults per room
+13. Select children for room
+14. Click on search btn
+15. Verify Table data based on Search condition</t>
+  </si>
+  <si>
+    <t>table data should be displayed
+based on search condition</t>
+  </si>
+  <si>
+    <t>TS041</t>
+  </si>
+  <si>
+    <t>Test Case Design</t>
+  </si>
+  <si>
+    <t>Test Execution</t>
+  </si>
+  <si>
+    <t>18/5/2024</t>
+  </si>
+  <si>
+    <t>Error message is 
 displayed</t>
   </si>
   <si>
-    <t>TS</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>URL: https://adactinhotelapp.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,8 +932,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,8 +953,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -665,11 +989,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,6 +1026,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,17 +1373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
@@ -1255,11 +1597,15 @@
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1286,20 +1632,24 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+    <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1354,9 +1704,9 @@
       <c r="E15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1379,9 +1729,9 @@
       <c r="E16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1404,9 +1754,9 @@
       <c r="E17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1429,9 +1779,9 @@
       <c r="E18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1454,9 +1804,9 @@
       <c r="E19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1479,9 +1829,9 @@
       <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1504,9 +1854,9 @@
       <c r="E21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1529,9 +1879,9 @@
       <c r="E22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1554,9 +1904,9 @@
       <c r="E23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1579,9 +1929,9 @@
       <c r="E24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1604,9 +1954,9 @@
       <c r="E25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1629,9 +1979,9 @@
       <c r="E26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1654,9 +2004,9 @@
       <c r="E27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1679,9 +2029,9 @@
       <c r="E28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1704,9 +2054,9 @@
       <c r="E29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1724,14 +2074,18 @@
         <v>116</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1754,9 +2108,13 @@
       <c r="E31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1779,9 +2137,9 @@
       <c r="E32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1804,9 +2162,9 @@
       <c r="E33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1817,7 +2175,9 @@
       <c r="A34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="C34" s="8" t="s">
         <v>125</v>
       </c>
@@ -1827,9 +2187,9 @@
       <c r="E34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1852,9 +2212,9 @@
       <c r="E35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1877,53 +2237,59 @@
       <c r="E36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1934,13 +2300,15 @@
       <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1951,13 +2319,15 @@
       <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1972,9 +2342,9 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1989,9 +2359,9 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2006,9 +2376,9 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2023,9 +2393,9 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2040,9 +2410,9 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2057,9 +2427,9 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2074,9 +2444,9 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2091,60 +2461,84 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="B51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2159,9 +2553,9 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2176,9 +2570,9 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2193,9 +2587,9 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2208,189 +2602,281 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="226.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="B56" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="B58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="B59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="234" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="B60" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="B61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="B63" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="237" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="B64" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="255.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="B65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="255" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="B66" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -2403,9 +2889,9 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -2418,9 +2904,9 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -2433,9 +2919,9 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -2448,9 +2934,9 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2463,9 +2949,9 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2478,9 +2964,9 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -2493,9 +2979,9 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -2508,9 +2994,9 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -2523,9 +3009,9 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -2538,9 +3024,9 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -2553,9 +3039,9 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -2568,9 +3054,9 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -2583,9 +3069,9 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -2598,9 +3084,9 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -2613,9 +3099,9 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -2628,9 +3114,9 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -2643,9 +3129,9 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -2658,9 +3144,9 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -2668,8 +3154,10 @@
       <c r="M85" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
